--- a/Run 2/Forecast_Results_LSTM_Inventory.xlsx
+++ b/Run 2/Forecast_Results_LSTM_Inventory.xlsx
@@ -5,23 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpersaricioglu/Library/Mobile Documents/com~apple~CloudDocs/PhD Thesis/1 Tez Önerisi/1 Çalışmalar/Time series runs 26.3.24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpersaricioglu/Library/Mobile Documents/com~apple~CloudDocs/PhD Thesis/1 Tez Önerisi/1 Çalışmalar/Time series runs 26.3.24/New DNN forecast input (9.4.24)/Run 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890E2E25-A7C1-0E4D-BBA6-75B0DEDC9253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9931B714-F802-5342-A427-A5509A15AA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forecasted Inventory" sheetId="1" r:id="rId1"/>
-    <sheet name="Forecast Errors" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Apparel</t>
   </si>
@@ -253,31 +252,13 @@
   <si>
     <t>Total Merchant Wholesalers, Except Manufacturers' Sales Branches and Offices</t>
   </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>MAPE</t>
-  </si>
-  <si>
-    <t>sMAPE</t>
-  </si>
-  <si>
-    <t>MAE</t>
-  </si>
-  <si>
-    <t>MSE</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -334,7 +315,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -641,16 +622,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>82</v>
-      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23301,1576 +23280,6 @@
       </c>
       <c r="BZ96">
         <v>516150.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F78"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0.10736375015623011</v>
-      </c>
-      <c r="D2">
-        <v>0.1125215326641863</v>
-      </c>
-      <c r="E2">
-        <v>174.99584483017381</v>
-      </c>
-      <c r="F2">
-        <v>49343.148852032064</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0.26031740705144207</v>
-      </c>
-      <c r="D3">
-        <v>0.23942318163001511</v>
-      </c>
-      <c r="E3">
-        <v>287.00452923243449</v>
-      </c>
-      <c r="F3">
-        <v>112520.96990659329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0.31953253219013361</v>
-      </c>
-      <c r="D4">
-        <v>0.40368140731608698</v>
-      </c>
-      <c r="E4">
-        <v>1455.9108482378861</v>
-      </c>
-      <c r="F4">
-        <v>3111014.1032845811</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0.19847208211040129</v>
-      </c>
-      <c r="D5">
-        <v>0.1709372130392087</v>
-      </c>
-      <c r="E5">
-        <v>217.67627486479751</v>
-      </c>
-      <c r="F5">
-        <v>74252.33189755182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>0.26495943801408423</v>
-      </c>
-      <c r="D6">
-        <v>0.30623075194798688</v>
-      </c>
-      <c r="E6">
-        <v>3628.5467048490091</v>
-      </c>
-      <c r="F6">
-        <v>13561630.58569981</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>0.37688074969380059</v>
-      </c>
-      <c r="D7">
-        <v>0.28139815551514219</v>
-      </c>
-      <c r="E7">
-        <v>385.66291269183989</v>
-      </c>
-      <c r="F7">
-        <v>303637.25405556941</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>0.89906869183864913</v>
-      </c>
-      <c r="D8">
-        <v>0.55836176172505536</v>
-      </c>
-      <c r="E8">
-        <v>6216.4583895553587</v>
-      </c>
-      <c r="F8">
-        <v>55175729.317475431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>0.83264199652836834</v>
-      </c>
-      <c r="D9">
-        <v>0.55813697133216766</v>
-      </c>
-      <c r="E9">
-        <v>891.36560824384401</v>
-      </c>
-      <c r="F9">
-        <v>931008.81598499999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>7.3822300786832981E-2</v>
-      </c>
-      <c r="D10">
-        <v>7.6065287874633847E-2</v>
-      </c>
-      <c r="E10">
-        <v>324.11757344783649</v>
-      </c>
-      <c r="F10">
-        <v>185185.69194869831</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>0.1055690501043532</v>
-      </c>
-      <c r="D11">
-        <v>0.1122166113793988</v>
-      </c>
-      <c r="E11">
-        <v>561.34229268963134</v>
-      </c>
-      <c r="F11">
-        <v>359778.72138449998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>0.1178085871268182</v>
-      </c>
-      <c r="D12">
-        <v>0.1268572329756</v>
-      </c>
-      <c r="E12">
-        <v>184.50790761370999</v>
-      </c>
-      <c r="F12">
-        <v>44824.549937464129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>0.13437775081386991</v>
-      </c>
-      <c r="D13">
-        <v>0.14878554274063999</v>
-      </c>
-      <c r="E13">
-        <v>647.1662825200267</v>
-      </c>
-      <c r="F13">
-        <v>645882.90065805975</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>8.0972869814286821E-2</v>
-      </c>
-      <c r="D14">
-        <v>8.6243067204705315E-2</v>
-      </c>
-      <c r="E14">
-        <v>2280.3755210746758</v>
-      </c>
-      <c r="F14">
-        <v>8102305.2227226226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>0.15148389042200039</v>
-      </c>
-      <c r="D15">
-        <v>0.16725027100371889</v>
-      </c>
-      <c r="E15">
-        <v>479.90494884374749</v>
-      </c>
-      <c r="F15">
-        <v>293586.71302822419</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>7.3751150471141932E-2</v>
-      </c>
-      <c r="D16">
-        <v>7.4859257378842692E-2</v>
-      </c>
-      <c r="E16">
-        <v>2345.7152083360038</v>
-      </c>
-      <c r="F16">
-        <v>7029851.7211131938</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>0.1173525330891786</v>
-      </c>
-      <c r="D17">
-        <v>0.1181086407614378</v>
-      </c>
-      <c r="E17">
-        <v>323.46009636687529</v>
-      </c>
-      <c r="F17">
-        <v>149072.54096017621</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>0.29272736177076941</v>
-      </c>
-      <c r="D18">
-        <v>0.24718510657834489</v>
-      </c>
-      <c r="E18">
-        <v>388.15802883056352</v>
-      </c>
-      <c r="F18">
-        <v>178678.36660830729</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>6.1127569161611758E-2</v>
-      </c>
-      <c r="D19">
-        <v>6.3368708607085336E-2</v>
-      </c>
-      <c r="E19">
-        <v>317.6949010113043</v>
-      </c>
-      <c r="F19">
-        <v>122070.4906736984</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20">
-        <v>8.9132562239560037E-2</v>
-      </c>
-      <c r="D20">
-        <v>8.4436196934283378E-2</v>
-      </c>
-      <c r="E20">
-        <v>314.01833709131893</v>
-      </c>
-      <c r="F20">
-        <v>138603.61712711299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21">
-        <v>0.1962804304546121</v>
-      </c>
-      <c r="D21">
-        <v>0.20805137757836101</v>
-      </c>
-      <c r="E21">
-        <v>381.97631110267628</v>
-      </c>
-      <c r="F21">
-        <v>193604.89164754699</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22">
-        <v>0.18674900568581371</v>
-      </c>
-      <c r="D22">
-        <v>0.2091492452307317</v>
-      </c>
-      <c r="E22">
-        <v>386.10702906541712</v>
-      </c>
-      <c r="F22">
-        <v>176614.87028498959</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23">
-        <v>0.29370831287321381</v>
-      </c>
-      <c r="D23">
-        <v>0.25334589001319963</v>
-      </c>
-      <c r="E23">
-        <v>1593.487684639533</v>
-      </c>
-      <c r="F23">
-        <v>2751274.3534033438</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <v>0.1209100901048959</v>
-      </c>
-      <c r="D24">
-        <v>0.1122720964373862</v>
-      </c>
-      <c r="E24">
-        <v>1378.2000525880801</v>
-      </c>
-      <c r="F24">
-        <v>2522047.63511361</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25">
-        <v>0.1202260218690672</v>
-      </c>
-      <c r="D25">
-        <v>0.13381503045606749</v>
-      </c>
-      <c r="E25">
-        <v>99.020121624928294</v>
-      </c>
-      <c r="F25">
-        <v>18318.103102414141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26">
-        <v>0.53408983184331082</v>
-      </c>
-      <c r="D26">
-        <v>0.75696299109659371</v>
-      </c>
-      <c r="E26">
-        <v>3273.9315916291189</v>
-      </c>
-      <c r="F26">
-        <v>12888056.671819741</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27">
-        <v>0.16331676556258021</v>
-      </c>
-      <c r="D27">
-        <v>0.17889174049904369</v>
-      </c>
-      <c r="E27">
-        <v>624.97547319059095</v>
-      </c>
-      <c r="F27">
-        <v>425762.13177520089</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28">
-        <v>8.2522950761767869E-2</v>
-      </c>
-      <c r="D28">
-        <v>8.6817306297641783E-2</v>
-      </c>
-      <c r="E28">
-        <v>543.69160043175816</v>
-      </c>
-      <c r="F28">
-        <v>362358.2967984624</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29">
-        <v>0.32002403326179879</v>
-      </c>
-      <c r="D29">
-        <v>0.26666617657332792</v>
-      </c>
-      <c r="E29">
-        <v>1276.196570161658</v>
-      </c>
-      <c r="F29">
-        <v>2052280.356148486</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30">
-        <v>0.6121874660809844</v>
-      </c>
-      <c r="D30">
-        <v>0.44606109374410918</v>
-      </c>
-      <c r="E30">
-        <v>2183.2383439113669</v>
-      </c>
-      <c r="F30">
-        <v>5356267.2344168406</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31">
-        <v>3.7715611941635363E-2</v>
-      </c>
-      <c r="D31">
-        <v>3.8619674843581579E-2</v>
-      </c>
-      <c r="E31">
-        <v>630.18376124076588</v>
-      </c>
-      <c r="F31">
-        <v>505832.26885594428</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32">
-        <v>7.0006125295531782E-2</v>
-      </c>
-      <c r="D32">
-        <v>6.5880102792846576E-2</v>
-      </c>
-      <c r="E32">
-        <v>562.40740595327486</v>
-      </c>
-      <c r="F32">
-        <v>566685.07546752179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33">
-        <v>1.162149642467976</v>
-      </c>
-      <c r="D33">
-        <v>0.68095183789303138</v>
-      </c>
-      <c r="E33">
-        <v>1714.1171936042531</v>
-      </c>
-      <c r="F33">
-        <v>3576795.8179073958</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34">
-        <v>0.30766608736674611</v>
-      </c>
-      <c r="D34">
-        <v>0.36819531775473208</v>
-      </c>
-      <c r="E34">
-        <v>4904.9417016890784</v>
-      </c>
-      <c r="F34">
-        <v>27084134.728519801</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35">
-        <v>8.4357978504309622E-2</v>
-      </c>
-      <c r="D35">
-        <v>8.9988283143292186E-2</v>
-      </c>
-      <c r="E35">
-        <v>197.89509085405891</v>
-      </c>
-      <c r="F35">
-        <v>65462.352080930861</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36">
-        <v>4.5858301627712678E-2</v>
-      </c>
-      <c r="D36">
-        <v>4.5539946622015583E-2</v>
-      </c>
-      <c r="E36">
-        <v>155.53443033444469</v>
-      </c>
-      <c r="F36">
-        <v>30578.789128262211</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37">
-        <v>0.26363259690013752</v>
-      </c>
-      <c r="D37">
-        <v>0.31622060499292071</v>
-      </c>
-      <c r="E37">
-        <v>736.37290213991389</v>
-      </c>
-      <c r="F37">
-        <v>689632.47424618399</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38">
-        <v>0.1406053069155096</v>
-      </c>
-      <c r="D38">
-        <v>0.13815681063716301</v>
-      </c>
-      <c r="E38">
-        <v>1925.0850169068649</v>
-      </c>
-      <c r="F38">
-        <v>5175600.2092686519</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39">
-        <v>0.1511659076627847</v>
-      </c>
-      <c r="D39">
-        <v>0.16492412395703651</v>
-      </c>
-      <c r="E39">
-        <v>3276.1279925018971</v>
-      </c>
-      <c r="F39">
-        <v>12169236.494800931</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40">
-        <v>0.16677748459819611</v>
-      </c>
-      <c r="D40">
-        <v>0.15180122771756491</v>
-      </c>
-      <c r="E40">
-        <v>139.0997490899378</v>
-      </c>
-      <c r="F40">
-        <v>22232.351483861421</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41">
-        <v>9.1900012104433354E-2</v>
-      </c>
-      <c r="D41">
-        <v>9.8974813695874214E-2</v>
-      </c>
-      <c r="E41">
-        <v>1630.683606972847</v>
-      </c>
-      <c r="F41">
-        <v>4121384.7066350379</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42">
-        <v>3.9718880141613511E-2</v>
-      </c>
-      <c r="D42">
-        <v>3.8087110394412108E-2</v>
-      </c>
-      <c r="E42">
-        <v>166.83269953868839</v>
-      </c>
-      <c r="F42">
-        <v>66284.826405167507</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43">
-        <v>0.32864025204281749</v>
-      </c>
-      <c r="D43">
-        <v>0.27456008791134612</v>
-      </c>
-      <c r="E43">
-        <v>1009.58807375398</v>
-      </c>
-      <c r="F43">
-        <v>1171383.072583392</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44">
-        <v>0.1009277390440554</v>
-      </c>
-      <c r="D44">
-        <v>0.1066776319471347</v>
-      </c>
-      <c r="E44">
-        <v>529.89629120623022</v>
-      </c>
-      <c r="F44">
-        <v>301903.0074859701</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45">
-        <v>9.9483677405830043E-2</v>
-      </c>
-      <c r="D45">
-        <v>0.1026720319749834</v>
-      </c>
-      <c r="E45">
-        <v>574.92443025968475</v>
-      </c>
-      <c r="F45">
-        <v>438791.06500170787</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46">
-        <v>5.9656591762166027E-2</v>
-      </c>
-      <c r="D46">
-        <v>5.7586678977148427E-2</v>
-      </c>
-      <c r="E46">
-        <v>143.33703714054991</v>
-      </c>
-      <c r="F46">
-        <v>24179.493847815738</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47">
-        <v>0.13985401701584049</v>
-      </c>
-      <c r="D47">
-        <v>0.14118445631066309</v>
-      </c>
-      <c r="E47">
-        <v>357.58786103919908</v>
-      </c>
-      <c r="F47">
-        <v>150726.41803165121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48">
-        <v>0.2318135273072735</v>
-      </c>
-      <c r="D48">
-        <v>0.1904767957737471</v>
-      </c>
-      <c r="E48">
-        <v>360.0671764356681</v>
-      </c>
-      <c r="F48">
-        <v>227281.97151424919</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49">
-        <v>9.1907957770407708E-2</v>
-      </c>
-      <c r="D49">
-        <v>9.8167396282485123E-2</v>
-      </c>
-      <c r="E49">
-        <v>43538.591413903137</v>
-      </c>
-      <c r="F49">
-        <v>2712250916.2270842</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50">
-        <v>0.14834617441878711</v>
-      </c>
-      <c r="D50">
-        <v>0.16613054201439351</v>
-      </c>
-      <c r="E50">
-        <v>17276.262123878591</v>
-      </c>
-      <c r="F50">
-        <v>513616271.58240408</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51">
-        <v>0.1538128944463249</v>
-      </c>
-      <c r="D51">
-        <v>0.1745113900695533</v>
-      </c>
-      <c r="E51">
-        <v>683.67943367018404</v>
-      </c>
-      <c r="F51">
-        <v>788680.04278406326</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52">
-        <v>0.1134401851975794</v>
-      </c>
-      <c r="D52">
-        <v>0.1039133952608335</v>
-      </c>
-      <c r="E52">
-        <v>935.90472691167963</v>
-      </c>
-      <c r="F52">
-        <v>1325992.925910203</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53">
-        <v>0.18513071379643681</v>
-      </c>
-      <c r="D53">
-        <v>0.20858855981374869</v>
-      </c>
-      <c r="E53">
-        <v>10695.569126853579</v>
-      </c>
-      <c r="F53">
-        <v>146648537.8953529</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54">
-        <v>0.12414788118907839</v>
-      </c>
-      <c r="D54">
-        <v>0.13441974043674951</v>
-      </c>
-      <c r="E54">
-        <v>7491.260014629047</v>
-      </c>
-      <c r="F54">
-        <v>72097744.286263496</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55">
-        <v>9.8017157888883266E-2</v>
-      </c>
-      <c r="D55">
-        <v>0.10338603466722809</v>
-      </c>
-      <c r="E55">
-        <v>3182.0035977695761</v>
-      </c>
-      <c r="F55">
-        <v>10864575.296457101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56">
-        <v>0.13116493456859851</v>
-      </c>
-      <c r="D56">
-        <v>0.14324059724106111</v>
-      </c>
-      <c r="E56">
-        <v>9414.2066007174089</v>
-      </c>
-      <c r="F56">
-        <v>116217858.8430731</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57">
-        <v>6.9985095865403787E-2</v>
-      </c>
-      <c r="D57">
-        <v>7.3328379228839627E-2</v>
-      </c>
-      <c r="E57">
-        <v>6251.4008848069379</v>
-      </c>
-      <c r="F57">
-        <v>63418052.71632006</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58">
-        <v>0.2403333337551315</v>
-      </c>
-      <c r="D58">
-        <v>0.2822568759534454</v>
-      </c>
-      <c r="E58">
-        <v>44609.5760492263</v>
-      </c>
-      <c r="F58">
-        <v>2901381936.4874511</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59">
-        <v>0.2479995086411462</v>
-      </c>
-      <c r="D59">
-        <v>0.28565545735560538</v>
-      </c>
-      <c r="E59">
-        <v>138577.0697150513</v>
-      </c>
-      <c r="F59">
-        <v>20593244816.36293</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60">
-        <v>9.9158052749624775E-2</v>
-      </c>
-      <c r="D60">
-        <v>9.6127016216715613E-2</v>
-      </c>
-      <c r="E60">
-        <v>2465.777805924431</v>
-      </c>
-      <c r="F60">
-        <v>9996075.0239913203</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61">
-        <v>0.16351647665000621</v>
-      </c>
-      <c r="D61">
-        <v>0.18165906194616691</v>
-      </c>
-      <c r="E61">
-        <v>2176.7678430811552</v>
-      </c>
-      <c r="F61">
-        <v>6435027.4564109584</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62">
-        <v>0.12784123105078959</v>
-      </c>
-      <c r="D62">
-        <v>0.13753340983255841</v>
-      </c>
-      <c r="E62">
-        <v>865.0082265945199</v>
-      </c>
-      <c r="F62">
-        <v>835896.77873594023</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63">
-        <v>0.30943009787696663</v>
-      </c>
-      <c r="D63">
-        <v>0.37059958989225122</v>
-      </c>
-      <c r="E63">
-        <v>10923.395202946411</v>
-      </c>
-      <c r="F63">
-        <v>130621046.7771038</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>62</v>
-      </c>
-      <c r="C64">
-        <v>0.32170764010840958</v>
-      </c>
-      <c r="D64">
-        <v>0.39089215421510137</v>
-      </c>
-      <c r="E64">
-        <v>6268.6197994838103</v>
-      </c>
-      <c r="F64">
-        <v>46840208.219141699</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65">
-        <v>0.18316125158732821</v>
-      </c>
-      <c r="D65">
-        <v>0.20590048740897449</v>
-      </c>
-      <c r="E65">
-        <v>1764.6596119429871</v>
-      </c>
-      <c r="F65">
-        <v>3858864.5485066748</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>64</v>
-      </c>
-      <c r="C66">
-        <v>0.14827792201569109</v>
-      </c>
-      <c r="D66">
-        <v>0.16465103095222519</v>
-      </c>
-      <c r="E66">
-        <v>3979.473191625319</v>
-      </c>
-      <c r="F66">
-        <v>25742704.965610709</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67">
-        <v>0.22254657559935079</v>
-      </c>
-      <c r="D67">
-        <v>0.25294074936732158</v>
-      </c>
-      <c r="E67">
-        <v>4408.0569869175351</v>
-      </c>
-      <c r="F67">
-        <v>22627439.847409349</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68">
-        <v>5.9536407163520967E-2</v>
-      </c>
-      <c r="D68">
-        <v>6.3185925574708299E-2</v>
-      </c>
-      <c r="E68">
-        <v>4552.5539842471753</v>
-      </c>
-      <c r="F68">
-        <v>50797644.5595043</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69">
-        <v>0.2458835976535777</v>
-      </c>
-      <c r="D69">
-        <v>0.28908113706061911</v>
-      </c>
-      <c r="E69">
-        <v>3819.1675688690789</v>
-      </c>
-      <c r="F69">
-        <v>18779232.50089265</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70">
-        <v>4.50970856826736E-2</v>
-      </c>
-      <c r="D70">
-        <v>4.5138935008761392E-2</v>
-      </c>
-      <c r="E70">
-        <v>3044.608199165014</v>
-      </c>
-      <c r="F70">
-        <v>15858518.282503</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71">
-        <v>0.12671791556132789</v>
-      </c>
-      <c r="D71">
-        <v>0.13275512963749159</v>
-      </c>
-      <c r="E71">
-        <v>2090.8455764522469</v>
-      </c>
-      <c r="F71">
-        <v>5206588.5353949638</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72">
-        <v>0.1744037328896462</v>
-      </c>
-      <c r="D72">
-        <v>0.19400520587719061</v>
-      </c>
-      <c r="E72">
-        <v>4357.6754494384231</v>
-      </c>
-      <c r="F72">
-        <v>23230533.6888257</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73">
-        <v>0.16001192478458531</v>
-      </c>
-      <c r="D73">
-        <v>0.1586415840697486</v>
-      </c>
-      <c r="E73">
-        <v>3425.9157940525902</v>
-      </c>
-      <c r="F73">
-        <v>17580695.161449522</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74">
-        <v>0.173512254695385</v>
-      </c>
-      <c r="D74">
-        <v>0.19234108675131201</v>
-      </c>
-      <c r="E74">
-        <v>10745.11179386519</v>
-      </c>
-      <c r="F74">
-        <v>135368083.97517139</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75">
-        <v>9.4413972340324726E-2</v>
-      </c>
-      <c r="D75">
-        <v>8.6737313678832709E-2</v>
-      </c>
-      <c r="E75">
-        <v>446.70008451215352</v>
-      </c>
-      <c r="F75">
-        <v>367130.86300362402</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76">
-        <v>0.35242600460278789</v>
-      </c>
-      <c r="D76">
-        <v>0.30088184340257151</v>
-      </c>
-      <c r="E76">
-        <v>3048.3721490718908</v>
-      </c>
-      <c r="F76">
-        <v>13888621.854655201</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77">
-        <v>0.1257326081360946</v>
-      </c>
-      <c r="D77">
-        <v>0.1378701968629818</v>
-      </c>
-      <c r="E77">
-        <v>23978.76513653943</v>
-      </c>
-      <c r="F77">
-        <v>875919641.67854416</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>76</v>
-      </c>
-      <c r="C78">
-        <v>0.1932927017503156</v>
-      </c>
-      <c r="D78">
-        <v>0.21540816256985501</v>
-      </c>
-      <c r="E78">
-        <v>101027.0022515965</v>
-      </c>
-      <c r="F78">
-        <v>10759853713.356489</v>
       </c>
     </row>
   </sheetData>

--- a/Run 2/Forecast_Results_LSTM_Inventory.xlsx
+++ b/Run 2/Forecast_Results_LSTM_Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpersaricioglu/Library/Mobile Documents/com~apple~CloudDocs/PhD Thesis/1 Tez Önerisi/1 Çalışmalar/Time series runs 26.3.24/New DNN forecast input (9.4.24)/Run 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F4DA81-1AED-6544-B6EC-B7EE5165F32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0943E8A4-6E7F-D84D-891A-8427E705769E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forecasted Inventory" sheetId="1" r:id="rId1"/>
@@ -276,10 +276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +289,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -334,9 +339,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,11 +644,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection sqref="A1:A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
